--- a/stat.xlsx
+++ b/stat.xlsx
@@ -11,6 +11,68 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Vehicle_Car</t>
+  </si>
+  <si>
+    <t>TrafficSign_Else</t>
+  </si>
+  <si>
+    <t>TrafficSign_Speed</t>
+  </si>
+  <si>
+    <t>TrafficLight_Green</t>
+  </si>
+  <si>
+    <t>Vehicle_Bus</t>
+  </si>
+  <si>
+    <t>Pedestrian_Pedestrian</t>
+  </si>
+  <si>
+    <t>Vehicle_Unknown</t>
+  </si>
+  <si>
+    <t>RoadMark_Character</t>
+  </si>
+  <si>
+    <t>RoadMark_Number</t>
+  </si>
+  <si>
+    <t>RoadMarkArrow_Straight</t>
+  </si>
+  <si>
+    <t>TrafficLight_GreenArrow</t>
+  </si>
+  <si>
+    <t>RoadMarkArrow_Left</t>
+  </si>
+  <si>
+    <t>RoadMark_StopLine</t>
+  </si>
+  <si>
+    <t>RoadMarkArrow_Else</t>
+  </si>
+  <si>
+    <t>RoadMark_Crosswalk</t>
+  </si>
+  <si>
+    <t>RoadMarkArrow_Right</t>
+  </si>
+  <si>
+    <t>TrafficLight_Red</t>
+  </si>
+  <si>
+    <t>Vehicle_Motorcycle</t>
+  </si>
+  <si>
+    <t>RoadMarkArrow_StraightLeft</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,27 +440,155 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>46467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>8408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>29670</v>
+      <c r="B5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
